--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_30/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_30/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.01577076</t>
+          <t>0.0029567396</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.06389962</t>
+          <t>0.046160474</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.012863377</t>
+          <t>0.008466197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.060320944</t>
+          <t>0.048349977</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.015637415</t>
+          <t>0.008224272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.103625424</t>
+          <t>0.07604726</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0218134</t>
+          <t>0.021103892</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.10806487</t>
+          <t>0.10654188</t>
         </is>
       </c>
       <c r="D5" t="n">
